--- a/data/2027.8.2--2027.8.8.xlsx
+++ b/data/2027.8.2--2027.8.8.xlsx
@@ -61,7 +61,7 @@
     <t>好剧连连看-2邮差1</t>
   </si>
   <si>
-    <t>140ST1#</t>
+    <t>140ST#1</t>
   </si>
   <si>
     <t>好剧连连看-3邮差1</t>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:IV873"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6030,7 +6030,7 @@
   <dimension ref="A1:IV874"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11097,7 +11097,7 @@
   <dimension ref="A1:IV875"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16932,7 +16932,7 @@
   <dimension ref="A1:IV875"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21492,7 +21492,7 @@
   <dimension ref="A1:IV875"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26564,7 +26564,7 @@
   <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -29159,7 +29159,7 @@
   <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
